--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_1_5.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_1_5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="风口" sheetId="17" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="186">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +698,14 @@
   </si>
   <si>
     <t>30,27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗户有效面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1168,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1179,260 +1187,356 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>94</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -2491,42 +2595,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_1_5.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_1_5.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="188">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,6 +706,13 @@
   </si>
   <si>
     <t>楼层编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风口标高</t>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1176,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1187,7 +1194,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1197,8 +1204,11 @@
       <c r="C1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1208,8 +1218,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1219,8 +1232,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1230,8 +1246,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1241,8 +1260,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1252,8 +1274,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1263,8 +1288,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1274,8 +1302,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1285,8 +1316,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1307,8 +1344,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1318,8 +1358,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1329,8 +1372,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1340,8 +1386,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1351,8 +1400,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1362,8 +1414,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1373,8 +1428,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1384,8 +1442,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1395,8 +1456,11 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1406,8 +1470,11 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1417,8 +1484,11 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1428,8 +1498,11 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1439,8 +1512,11 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1450,8 +1526,11 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1461,8 +1540,11 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1472,8 +1554,11 @@
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1483,8 +1568,11 @@
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1494,8 +1582,11 @@
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1505,8 +1596,11 @@
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1516,8 +1610,11 @@
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1527,8 +1624,11 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1537,6 +1637,9 @@
       </c>
       <c r="C32">
         <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2662,19 +2765,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="3" max="4" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2685,10 +2788,13 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2696,8 +2802,11 @@
         <v>35</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2705,8 +2814,11 @@
         <v>36</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D3" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2714,45 +2826,63 @@
         <v>40</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D4" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D5" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D8" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>170</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_1_5.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_3_1_5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="风口" sheetId="17" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="门" sheetId="22" r:id="rId6"/>
     <sheet name="房间(通过测试)" sheetId="23" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="193">
   <si>
     <t>房间1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -713,6 +713,26 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为室外风口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,18 +1203,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1207,8 +1228,14 @@
       <c r="D1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1221,8 +1248,14 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1235,8 +1268,14 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1249,8 +1288,14 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1277,8 +1328,14 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1291,8 +1348,14 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1305,8 +1368,14 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1319,8 +1388,14 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1333,8 +1408,14 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1347,8 +1428,14 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1361,8 +1448,14 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1375,8 +1468,14 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1389,8 +1488,14 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1403,8 +1508,14 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1417,8 +1528,14 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1431,8 +1548,14 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1445,8 +1568,14 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1459,8 +1588,14 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1473,8 +1608,14 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1487,8 +1628,14 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1501,8 +1648,14 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1515,8 +1668,14 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1529,8 +1688,14 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1543,8 +1708,14 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1557,8 +1728,14 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1571,8 +1748,14 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1585,8 +1768,14 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1599,8 +1788,14 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1613,8 +1808,14 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1627,8 +1828,14 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1640,6 +1847,12 @@
       </c>
       <c r="D32">
         <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -1651,22 +1864,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="12" max="12" width="37.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
@@ -1695,13 +1908,16 @@
         <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1729,14 +1945,17 @@
       <c r="I2" s="6">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="6">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1764,14 +1983,17 @@
       <c r="I3" s="8">
         <v>5</v>
       </c>
-      <c r="J3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="8">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1797,14 +2019,17 @@
       <c r="I4" s="4">
         <v>5</v>
       </c>
-      <c r="J4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1832,14 +2057,17 @@
       <c r="I5" s="14">
         <v>5</v>
       </c>
-      <c r="J5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="14">
+        <v>3</v>
+      </c>
+      <c r="K5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -1867,14 +2095,17 @@
       <c r="I6" s="18">
         <v>5</v>
       </c>
-      <c r="J6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18" t="s">
+      <c r="J6" s="18">
+        <v>3</v>
+      </c>
+      <c r="K6" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -1902,14 +2133,17 @@
       <c r="I7" s="16">
         <v>5</v>
       </c>
-      <c r="J7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16" t="s">
+      <c r="J7" s="16">
+        <v>3</v>
+      </c>
+      <c r="K7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1937,14 +2171,17 @@
       <c r="I8" s="6">
         <v>5</v>
       </c>
-      <c r="J8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="6">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1972,14 +2209,17 @@
       <c r="I9" s="6">
         <v>5</v>
       </c>
-      <c r="J9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="6">
+        <v>3</v>
+      </c>
+      <c r="K9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2007,14 +2247,17 @@
       <c r="I10" s="6">
         <v>5</v>
       </c>
-      <c r="J10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="J10" s="6">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2042,14 +2285,17 @@
       <c r="I11" s="8">
         <v>5</v>
       </c>
-      <c r="J11" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="J11" s="8">
+        <v>3</v>
+      </c>
+      <c r="K11" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2077,14 +2323,17 @@
       <c r="I12" s="8">
         <v>5</v>
       </c>
-      <c r="J12" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="J12" s="8">
+        <v>3</v>
+      </c>
+      <c r="K12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2110,14 +2359,17 @@
       <c r="I13" s="8">
         <v>5</v>
       </c>
-      <c r="J13" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8" t="s">
+      <c r="J13" s="8">
+        <v>3</v>
+      </c>
+      <c r="K13" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2143,14 +2395,17 @@
       <c r="I14" s="8">
         <v>5</v>
       </c>
-      <c r="J14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8" t="s">
+      <c r="J14" s="8">
+        <v>3</v>
+      </c>
+      <c r="K14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2176,14 +2431,17 @@
       <c r="I15" s="4">
         <v>5</v>
       </c>
-      <c r="J15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="J15" s="4">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2209,14 +2467,17 @@
       <c r="I16" s="8">
         <v>5</v>
       </c>
-      <c r="J16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8" t="s">
+      <c r="J16" s="8">
+        <v>3</v>
+      </c>
+      <c r="K16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2242,14 +2503,17 @@
       <c r="I17" s="13">
         <v>5</v>
       </c>
-      <c r="J17" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="13" t="s">
+      <c r="J17" s="13">
+        <v>3</v>
+      </c>
+      <c r="K17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -2277,12 +2541,15 @@
       <c r="I18" s="17">
         <v>5</v>
       </c>
-      <c r="J18" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="17">
+        <v>3</v>
+      </c>
+      <c r="K18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -2310,14 +2577,17 @@
       <c r="I19" s="19">
         <v>5</v>
       </c>
-      <c r="J19" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="16" t="s">
+      <c r="J19" s="19">
+        <v>3</v>
+      </c>
+      <c r="K19" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2343,12 +2613,15 @@
       <c r="I20" s="6">
         <v>5</v>
       </c>
-      <c r="J20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J20" s="6">
+        <v>3</v>
+      </c>
+      <c r="K20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2374,12 +2647,15 @@
       <c r="I21" s="6">
         <v>5</v>
       </c>
-      <c r="J21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J21" s="6">
+        <v>3</v>
+      </c>
+      <c r="K21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2405,12 +2681,15 @@
       <c r="I22" s="6">
         <v>5</v>
       </c>
-      <c r="J22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J22" s="6">
+        <v>3</v>
+      </c>
+      <c r="K22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2436,12 +2715,15 @@
       <c r="I23" s="8">
         <v>5</v>
       </c>
-      <c r="J23" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J23" s="8">
+        <v>3</v>
+      </c>
+      <c r="K23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2467,12 +2749,15 @@
       <c r="I24" s="8">
         <v>5</v>
       </c>
-      <c r="J24" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J24" s="8">
+        <v>3</v>
+      </c>
+      <c r="K24" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2498,12 +2783,15 @@
       <c r="I25" s="8">
         <v>5</v>
       </c>
-      <c r="J25" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J25" s="8">
+        <v>3</v>
+      </c>
+      <c r="K25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2529,12 +2817,15 @@
       <c r="I26" s="8">
         <v>5</v>
       </c>
-      <c r="J26" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J26" s="8">
+        <v>3</v>
+      </c>
+      <c r="K26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2560,12 +2851,15 @@
       <c r="I27" s="8">
         <v>5</v>
       </c>
-      <c r="J27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J27" s="8">
+        <v>3</v>
+      </c>
+      <c r="K27" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2591,12 +2885,15 @@
       <c r="I28" s="3">
         <v>5</v>
       </c>
-      <c r="J28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J28" s="3">
+        <v>3</v>
+      </c>
+      <c r="K28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2622,12 +2919,15 @@
       <c r="I29" s="13">
         <v>5</v>
       </c>
-      <c r="J29" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J29" s="13">
+        <v>3</v>
+      </c>
+      <c r="K29" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -2653,12 +2953,15 @@
       <c r="I30" s="17">
         <v>5</v>
       </c>
-      <c r="J30" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J30" s="17">
+        <v>3</v>
+      </c>
+      <c r="K30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -2684,10 +2987,13 @@
       <c r="I31" s="15">
         <v>5</v>
       </c>
-      <c r="J31" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="15"/>
+      <c r="J31" s="15">
+        <v>3</v>
+      </c>
+      <c r="K31" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2704,12 +3010,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2717,7 +3023,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2725,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2733,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2741,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2749,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2765,19 +3071,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="4" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="4" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2793,8 +3099,11 @@
       <c r="E1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2805,8 +3114,11 @@
       <c r="D2" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2817,8 +3129,11 @@
       <c r="D3" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2829,8 +3144,11 @@
       <c r="D4" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2840,8 +3158,11 @@
       <c r="D5" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2851,8 +3172,11 @@
       <c r="D6" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2862,8 +3186,11 @@
       <c r="D7" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2873,8 +3200,11 @@
       <c r="D8" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2883,6 +3213,9 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>187</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2894,21 +3227,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="55.375" customWidth="1"/>
+    <col min="4" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="55.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2931,16 +3264,19 @@
         <v>28</v>
       </c>
       <c r="H1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2963,16 +3299,19 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2993,16 +3332,19 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3025,16 +3367,19 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3060,13 +3405,16 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3089,16 +3437,19 @@
         <v>1</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3121,16 +3472,19 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3153,16 +3507,19 @@
         <v>1</v>
       </c>
       <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3185,16 +3542,19 @@
         <v>1</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3217,16 +3577,19 @@
         <v>1</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3249,16 +3612,19 @@
         <v>1</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3279,16 +3645,19 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3311,16 +3680,19 @@
         <v>1</v>
       </c>
       <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
         <v>11</v>
       </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3343,16 +3715,19 @@
         <v>1</v>
       </c>
       <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3376,10 +3751,13 @@
         <v>3</v>
       </c>
       <c r="I15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3400,13 +3778,16 @@
         <v>1</v>
       </c>
       <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
         <v>4</v>
       </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3427,13 +3808,16 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3452,16 +3836,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3482,16 +3869,19 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3512,16 +3902,19 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3542,16 +3935,19 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>5</v>
-      </c>
-      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3572,16 +3968,19 @@
         <v>1</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>7</v>
       </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3602,16 +4001,19 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3630,16 +4032,19 @@
         <v>1</v>
       </c>
       <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
         <v>7</v>
       </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3660,12 +4065,15 @@
         <v>1</v>
       </c>
       <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
         <v>7</v>
       </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3684,24 +4092,24 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3714,23 +4122,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:K15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="39.5" customWidth="1"/>
-    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" customWidth="1"/>
+    <col min="12" max="12" width="39.453125" customWidth="1"/>
+    <col min="14" max="14" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3756,16 +4165,19 @@
         <v>29</v>
       </c>
       <c r="I1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3791,16 +4203,19 @@
         <v>1</v>
       </c>
       <c r="I2" s="9">
-        <v>5</v>
-      </c>
-      <c r="J2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="9">
+        <v>5</v>
+      </c>
+      <c r="K2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3826,16 +4241,19 @@
         <v>1</v>
       </c>
       <c r="I3" s="11">
-        <v>5</v>
-      </c>
-      <c r="J3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="11">
+        <v>5</v>
+      </c>
+      <c r="K3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3861,16 +4279,19 @@
         <v>2</v>
       </c>
       <c r="I4" s="9">
-        <v>5</v>
-      </c>
-      <c r="J4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>5</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3896,16 +4317,19 @@
         <v>3</v>
       </c>
       <c r="I5" s="9">
-        <v>5</v>
-      </c>
-      <c r="J5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3931,16 +4355,19 @@
         <v>4</v>
       </c>
       <c r="I6" s="9">
-        <v>5</v>
-      </c>
-      <c r="J6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3966,16 +4393,19 @@
         <v>5</v>
       </c>
       <c r="I7" s="11">
-        <v>5</v>
-      </c>
-      <c r="J7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="11">
+        <v>5</v>
+      </c>
+      <c r="K7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4001,16 +4431,19 @@
         <v>6</v>
       </c>
       <c r="I8" s="11">
-        <v>5</v>
-      </c>
-      <c r="J8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="11">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4034,16 +4467,19 @@
         <v>7</v>
       </c>
       <c r="I9" s="11">
-        <v>5</v>
-      </c>
-      <c r="J9" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="11">
+        <v>5</v>
+      </c>
+      <c r="K9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -4067,14 +4503,17 @@
         <v>3</v>
       </c>
       <c r="I10" s="9">
-        <v>5</v>
-      </c>
-      <c r="J10" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="J10" s="9">
+        <v>5</v>
+      </c>
+      <c r="K10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -4098,14 +4537,17 @@
         <v>3</v>
       </c>
       <c r="I11" s="9">
-        <v>5</v>
-      </c>
-      <c r="J11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9">
+        <v>5</v>
+      </c>
+      <c r="K11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -4129,14 +4571,17 @@
         <v>3</v>
       </c>
       <c r="I12" s="9">
-        <v>5</v>
-      </c>
-      <c r="J12" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="J12" s="9">
+        <v>5</v>
+      </c>
+      <c r="K12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -4160,14 +4605,17 @@
         <v>3</v>
       </c>
       <c r="I13" s="11">
-        <v>5</v>
-      </c>
-      <c r="J13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="J13" s="11">
+        <v>5</v>
+      </c>
+      <c r="K13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -4191,14 +4639,17 @@
         <v>3</v>
       </c>
       <c r="I14" s="11">
-        <v>5</v>
-      </c>
-      <c r="J14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="J14" s="11">
+        <v>5</v>
+      </c>
+      <c r="K14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -4222,12 +4673,15 @@
         <v>3</v>
       </c>
       <c r="I15" s="11">
-        <v>5</v>
-      </c>
-      <c r="J15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="J15" s="11">
+        <v>5</v>
+      </c>
+      <c r="K15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
